--- a/2024/data/processed/AOOS.xlsx
+++ b/2024/data/processed/AOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2024\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B176BAB-6D10-4296-BCEA-B3E9269D139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD2EBB-A23E-4B63-9B02-1A3DE1E2B78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Definitions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 RA assets'!$A$1:$S$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2024 RA assets'!$A$1:$R$167</definedName>
     <definedName name="ValidObservedVariables">#REF!</definedName>
     <definedName name="ValidPlatformType">#REF!</definedName>
     <definedName name="ValidSector">#REF!</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1124">
   <si>
     <t>Station ID</t>
   </si>
@@ -2178,9 +2178,6 @@
   </si>
   <si>
     <t>Dillingham Water Level Gauge 2 (Radar)</t>
-  </si>
-  <si>
-    <t>Install completed end of Nov 2021, but non-iced data not reporting until March 2022. There are two water level gauges using two different technologies currently deployed at Dillingham, AK — Gauge 1 and Guage 2. Having two gauges is typical practice for long term stations so there is redundancy in the observations in order to reduce the potential for data gaps.Despite this redundancy, Dillingham is an extremely challenging site since the dock goes dry, making data gaps still likely and expected, even with redundant technologies. Gauge 1 is a bubbler system secured to the seawall. It goes dry during spring tides, and also can freeze-up during winter. Gauge 2, is a downward looking radar that is co-located with Gauge 1, and also secured to the seawall. During winter, ice fast to the seawall can block the radar's view of the water, invalidating measurements until after the ice goes away. For both gauges, care should be taken to verify data collected during the months of October through April.</t>
   </si>
   <si>
     <t>KZTA2; replaced 2022</t>
@@ -3253,9 +3250,6 @@
     <t>COXA2</t>
   </si>
   <si>
-    <t>This station was reporting but the data was not being received at Axiom during 2024, so data will be backfilled to included 2024 data. This station is operational, but there is not flagging routine at Axiox to alert when a station is not reporting data. The data provider is going to create one on their end.</t>
-  </si>
-  <si>
     <t>UAF-Arctic Coastal Geosciences Lab (AKDNR-DGGS installed original)</t>
   </si>
   <si>
@@ -3764,6 +3758,10 @@
   </si>
   <si>
     <t xml:space="preserve">This is converted data to the local datum (with datum conversions provided in the file) using GNSS-R methods. The GNSS receiver is part of a statewide geodetic survey, and this installation is an opportunistic Water Level station, deployed on the AK Marine Highway Dock in Craig. AOOS is paying JOA Surveys to provide water level data for this installation to fill a data gap. </t>
+  </si>
+  <si>
+    <t>Install completed end of Nov 2021, but non-iced data not reporting until March 2022. There are two water level gauges using two different technologies currently deployed at Dillingham, AK — Gauge 1 and Guage 2. Having two gauges is typical practice for long term stations so there is redundancy in the observations in order to reduce the potential for data gaps.Despite this redundancy, Dillingham is an extremely challenging site since the dock goes dry, making data gaps still likely and expected, even with redundant technologies. Gauge 1 is a bubbler system secured to the seawall. It goes dry during spring tides, and also can freeze-up during winter. Gauge 2, is a downward looking radar that is co-located with Gauge 1, and also secured to the seawall. During winter, ice fast to the seawall can block the radar's view of the water, invalidating measurements until after the ice goes away. For both gauges, care should be taken to verify data collected during the months of October through April.
+This station was reporting but the data was not being received at Axiom during 2024, so data will be backfilled to included 2024 data. This station is operational, but there is not flagging routine at Axiox to alert when a station is not reporting data. The data provider is going to create one on their end.</t>
   </si>
 </sst>
 </file>
@@ -4008,7 +4006,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4241,9 +4239,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -4546,12 +4541,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T167"/>
+  <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27" customHeight="1"/>
@@ -4573,11 +4568,10 @@
     <col min="15" max="16" width="59.85546875" style="17" customWidth="1"/>
     <col min="17" max="17" width="82.28515625" style="17" customWidth="1"/>
     <col min="18" max="18" width="90.140625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="34.140625" style="17" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="17"/>
+    <col min="19" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1">
+    <row r="1" spans="1:19" ht="27" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>261</v>
       </c>
@@ -4633,7 +4627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="27" customHeight="1">
+    <row r="2" spans="1:19" ht="27" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -4641,13 +4635,13 @@
         <v>40</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F2" s="40">
         <v>71.599699999999999</v>
@@ -4662,7 +4656,7 @@
         <v>41902</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>42</v>
@@ -4680,27 +4674,27 @@
         <v>44</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q2" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R2" s="21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="27" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="27" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>819</v>
       </c>
       <c r="F3" s="40">
         <v>71.599699999999999</v>
@@ -4715,10 +4709,10 @@
         <v>41903</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>36</v>
@@ -4733,27 +4727,27 @@
         <v>44</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q3" s="41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R3" s="21" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="27" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>813</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F4" s="40">
         <v>71.599800000000002</v>
@@ -4768,10 +4762,10 @@
         <v>42236</v>
       </c>
       <c r="J4" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>814</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>815</v>
       </c>
       <c r="L4" s="17" t="s">
         <v>36</v>
@@ -4786,16 +4780,16 @@
         <v>44</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>363</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>359</v>
@@ -4824,7 +4818,7 @@
         <v>43657</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>355</v>
@@ -4842,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>362</v>
@@ -4851,7 +4845,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" customHeight="1">
+    <row r="6" spans="1:19" ht="27" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -4859,7 +4853,7 @@
         <v>364</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>360</v>
@@ -4880,7 +4874,7 @@
         <v>43657</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K6" s="21" t="s">
         <v>355</v>
@@ -4898,7 +4892,7 @@
         <v>44</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>361</v>
@@ -4907,7 +4901,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" customHeight="1">
+    <row r="7" spans="1:19" ht="27" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -4915,7 +4909,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>61</v>
@@ -4936,7 +4930,7 @@
         <v>1998</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>63</v>
@@ -4963,9 +4957,8 @@
         <v>66</v>
       </c>
       <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-    </row>
-    <row r="8" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="8" spans="1:19" ht="27" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -4973,7 +4966,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>50</v>
@@ -4994,7 +4987,7 @@
         <v>40682</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>52</v>
@@ -5018,11 +5011,10 @@
         <v>56</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>759</v>
-      </c>
-      <c r="S8" s="44"/>
-    </row>
-    <row r="9" spans="1:20" s="83" customFormat="1" ht="27" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="83" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="82" t="s">
         <v>37</v>
       </c>
@@ -5030,10 +5022,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E9" s="83" t="s">
         <v>59</v>
@@ -5051,10 +5043,10 @@
         <v>2011</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K9" s="83" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L9" s="83" t="s">
         <v>36</v>
@@ -5075,67 +5067,66 @@
         <v>312</v>
       </c>
       <c r="R9" s="85" t="s">
-        <v>760</v>
-      </c>
-      <c r="S9" s="86"/>
-    </row>
-    <row r="10" spans="1:20" s="87" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="87" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="86" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>833</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>826</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>827</v>
+      </c>
+      <c r="F10" s="87">
+        <v>62.194000000000003</v>
+      </c>
+      <c r="G10" s="87">
+        <v>-174.68799999999999</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>832</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>828</v>
+      </c>
+      <c r="L10" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>829</v>
+      </c>
+      <c r="P10" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="86" t="s">
+        <v>830</v>
+      </c>
+      <c r="R10" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>834</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>827</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>828</v>
-      </c>
-      <c r="F10" s="88">
-        <v>62.194000000000003</v>
-      </c>
-      <c r="G10" s="88">
-        <v>-174.68799999999999</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>833</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>1121</v>
-      </c>
-      <c r="K10" s="87" t="s">
-        <v>829</v>
-      </c>
-      <c r="L10" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="87" t="s">
-        <v>830</v>
-      </c>
-      <c r="P10" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="87" t="s">
-        <v>831</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="11" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>37</v>
       </c>
@@ -5190,9 +5181,8 @@
       <c r="R11" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="12" spans="1:19" ht="27" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -5245,7 +5235,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" customHeight="1">
+    <row r="13" spans="1:19" ht="27" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" customHeight="1">
+    <row r="14" spans="1:19" ht="27" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -5357,7 +5347,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" customHeight="1">
+    <row r="15" spans="1:19" ht="27" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5355,7 @@
         <v>483</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>482</v>
@@ -5413,7 +5403,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="42" customFormat="1" ht="27" customHeight="1">
+    <row r="16" spans="1:19" s="42" customFormat="1" ht="27" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
@@ -5467,7 +5457,7 @@
       </c>
       <c r="R16" s="51"/>
     </row>
-    <row r="17" spans="1:20" ht="27" customHeight="1">
+    <row r="17" spans="1:19" ht="27" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -5475,7 +5465,7 @@
         <v>276</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>147</v>
@@ -5516,9 +5506,8 @@
       <c r="P17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="18" spans="1:19" ht="27" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -5574,7 +5563,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27" customHeight="1">
+    <row r="19" spans="1:19" ht="27" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -5627,9 +5616,8 @@
         <v>292</v>
       </c>
       <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-    </row>
-    <row r="20" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="20" spans="1:19" ht="27" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -5685,7 +5673,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" customHeight="1">
+    <row r="21" spans="1:19" ht="27" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -5738,7 +5726,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" customHeight="1">
+    <row r="22" spans="1:19" ht="27" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -5792,9 +5780,8 @@
       </c>
       <c r="R22" s="42"/>
       <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-    </row>
-    <row r="23" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="23" spans="1:19" ht="27" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -5847,7 +5834,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" customHeight="1">
+    <row r="24" spans="1:19" ht="27" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -5903,7 +5890,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="27" customHeight="1">
+    <row r="25" spans="1:19" ht="27" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -5959,7 +5946,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="27" customHeight="1">
+    <row r="26" spans="1:19" ht="27" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -6012,7 +5999,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="27" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A27" s="41" t="s">
         <v>37</v>
       </c>
@@ -6067,9 +6054,8 @@
       <c r="R27" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="S27" s="46"/>
-    </row>
-    <row r="28" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="28" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A28" s="41" t="s">
         <v>37</v>
       </c>
@@ -6124,9 +6110,8 @@
       <c r="R28" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="S28" s="46"/>
-    </row>
-    <row r="29" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="29" spans="1:19" ht="27" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
@@ -6179,7 +6164,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="27" customHeight="1">
+    <row r="30" spans="1:19" ht="27" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>37</v>
       </c>
@@ -6235,9 +6220,8 @@
         <v>303</v>
       </c>
       <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-    </row>
-    <row r="31" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="31" spans="1:19" ht="27" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>37</v>
       </c>
@@ -6293,7 +6277,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="32" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="41" t="s">
         <v>37</v>
       </c>
@@ -6349,7 +6333,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="33" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A33" s="41" t="s">
         <v>37</v>
       </c>
@@ -6405,7 +6389,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="34" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A34" s="41" t="s">
         <v>37</v>
       </c>
@@ -6461,7 +6445,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="27" customHeight="1">
+    <row r="35" spans="1:19" ht="27" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>37</v>
       </c>
@@ -6514,7 +6498,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="27" customHeight="1">
+    <row r="36" spans="1:19" ht="27" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>37</v>
       </c>
@@ -6566,9 +6550,8 @@
       <c r="Q36" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="S36" s="42"/>
-    </row>
-    <row r="37" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="37" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A37" s="41" t="s">
         <v>37</v>
       </c>
@@ -6620,20 +6603,19 @@
       <c r="Q37" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="S37" s="46"/>
-    </row>
-    <row r="38" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="38" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A38" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C38" s="74" t="s">
+        <v>781</v>
+      </c>
+      <c r="D38" s="41" t="s">
         <v>782</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>783</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>320</v>
@@ -6675,11 +6657,10 @@
         <v>292</v>
       </c>
       <c r="R38" s="41" t="s">
-        <v>785</v>
-      </c>
-      <c r="S38" s="46"/>
-    </row>
-    <row r="39" spans="1:20" ht="27" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="27" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>37</v>
       </c>
@@ -6731,9 +6712,8 @@
       <c r="Q39" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="S39" s="42"/>
-    </row>
-    <row r="40" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="40" spans="1:19" ht="27" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>37</v>
       </c>
@@ -6785,20 +6765,19 @@
       <c r="Q40" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="S40" s="42"/>
-    </row>
-    <row r="41" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="41" spans="1:19" ht="27" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>575</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>474</v>
@@ -6837,11 +6816,10 @@
         <v>292</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="S41" s="42"/>
-    </row>
-    <row r="42" spans="1:20" ht="27" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="27" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>37</v>
       </c>
@@ -6894,7 +6872,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" customHeight="1">
+    <row r="43" spans="1:19" ht="27" customHeight="1">
       <c r="A43" s="21" t="s">
         <v>37</v>
       </c>
@@ -6950,7 +6928,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" customHeight="1">
+    <row r="44" spans="1:19" ht="27" customHeight="1">
       <c r="A44" s="21" t="s">
         <v>37</v>
       </c>
@@ -7006,9 +6984,8 @@
         <v>303</v>
       </c>
       <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-    </row>
-    <row r="45" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="45" spans="1:19" ht="27" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>37</v>
       </c>
@@ -7062,9 +7039,8 @@
       </c>
       <c r="R45" s="42"/>
       <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-    </row>
-    <row r="46" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="46" spans="1:19" ht="27" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>37</v>
       </c>
@@ -7072,7 +7048,7 @@
         <v>279</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>149</v>
@@ -7113,9 +7089,8 @@
       <c r="P46" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="S46" s="42"/>
-    </row>
-    <row r="47" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="47" spans="1:19" ht="27" customHeight="1">
       <c r="A47" s="21" t="s">
         <v>37</v>
       </c>
@@ -7170,9 +7145,8 @@
       <c r="R47" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="S47" s="42"/>
-    </row>
-    <row r="48" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="48" spans="1:19" ht="27" customHeight="1">
       <c r="A48" s="21" t="s">
         <v>37</v>
       </c>
@@ -7226,9 +7200,8 @@
       </c>
       <c r="R48" s="42"/>
       <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-    </row>
-    <row r="49" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="49" spans="1:19" ht="27" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>37</v>
       </c>
@@ -7281,7 +7254,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="27" customHeight="1">
+    <row r="50" spans="1:19" ht="27" customHeight="1">
       <c r="A50" s="21" t="s">
         <v>37</v>
       </c>
@@ -7334,7 +7307,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="27" customHeight="1">
+    <row r="51" spans="1:19" ht="27" customHeight="1">
       <c r="A51" s="21" t="s">
         <v>37</v>
       </c>
@@ -7387,7 +7360,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="27" customHeight="1">
+    <row r="52" spans="1:19" ht="27" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>37</v>
       </c>
@@ -7443,9 +7416,8 @@
         <v>303</v>
       </c>
       <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-    </row>
-    <row r="53" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="53" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A53" s="41" t="s">
         <v>37</v>
       </c>
@@ -7500,9 +7472,8 @@
       <c r="R53" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="S53" s="46"/>
-    </row>
-    <row r="54" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="54" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A54" s="41" t="s">
         <v>37</v>
       </c>
@@ -7554,9 +7525,8 @@
       <c r="Q54" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="S54" s="46"/>
-    </row>
-    <row r="55" spans="1:20" s="42" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="55" spans="1:19" s="42" customFormat="1" ht="27" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>37</v>
       </c>
@@ -7612,18 +7582,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="56" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C56" s="74" t="s">
         <v>604</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>474</v>
@@ -7665,11 +7635,10 @@
         <v>292</v>
       </c>
       <c r="R56" s="41" t="s">
-        <v>785</v>
-      </c>
-      <c r="S56" s="46"/>
-    </row>
-    <row r="57" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>37</v>
       </c>
@@ -7724,9 +7693,8 @@
       <c r="R57" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S57" s="46"/>
-    </row>
-    <row r="58" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="58" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A58" s="41" t="s">
         <v>37</v>
       </c>
@@ -7778,9 +7746,8 @@
       <c r="Q58" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="S58" s="46"/>
-    </row>
-    <row r="59" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="59" spans="1:19" ht="27" customHeight="1">
       <c r="A59" s="21" t="s">
         <v>37</v>
       </c>
@@ -7836,7 +7803,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="27" customHeight="1">
+    <row r="60" spans="1:19" ht="27" customHeight="1">
       <c r="A60" s="21" t="s">
         <v>37</v>
       </c>
@@ -7889,7 +7856,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="27" customHeight="1">
+    <row r="61" spans="1:19" ht="27" customHeight="1">
       <c r="A61" s="21" t="s">
         <v>37</v>
       </c>
@@ -7945,7 +7912,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="27" customHeight="1">
+    <row r="62" spans="1:19" ht="27" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>37</v>
       </c>
@@ -8001,7 +7968,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="27" customHeight="1">
+    <row r="63" spans="1:19" ht="27" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>37</v>
       </c>
@@ -8054,7 +8021,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="64" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A64" s="41" t="s">
         <v>37</v>
       </c>
@@ -8109,9 +8076,8 @@
       <c r="R64" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S64" s="46"/>
-    </row>
-    <row r="65" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="65" spans="1:19" ht="27" customHeight="1">
       <c r="A65" s="21" t="s">
         <v>37</v>
       </c>
@@ -8167,7 +8133,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    <row r="66" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A66" s="41" t="s">
         <v>37</v>
       </c>
@@ -8222,9 +8188,8 @@
       <c r="R66" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S66" s="46"/>
-    </row>
-    <row r="67" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="67" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A67" s="41" t="s">
         <v>37</v>
       </c>
@@ -8279,9 +8244,8 @@
       <c r="R67" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S67" s="46"/>
-    </row>
-    <row r="68" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="68" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>37</v>
       </c>
@@ -8292,7 +8256,7 @@
         <v>327</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E68" s="41" t="s">
         <v>108</v>
@@ -8336,9 +8300,8 @@
       <c r="R68" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="S68" s="46"/>
-    </row>
-    <row r="69" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="69" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A69" s="41" t="s">
         <v>37</v>
       </c>
@@ -8393,9 +8356,8 @@
       <c r="R69" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="S69" s="46"/>
-    </row>
-    <row r="70" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="70" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A70" s="41" t="s">
         <v>37</v>
       </c>
@@ -8450,14 +8412,13 @@
       <c r="R70" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="S70" s="46"/>
-    </row>
-    <row r="71" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="71" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A71" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C71" s="74" t="s">
         <v>599</v>
@@ -8505,11 +8466,10 @@
         <v>292</v>
       </c>
       <c r="R71" s="41" t="s">
-        <v>785</v>
-      </c>
-      <c r="S71" s="46"/>
-    </row>
-    <row r="72" spans="1:20" ht="27" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="27" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>37</v>
       </c>
@@ -8565,18 +8525,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="27" customHeight="1">
+    <row r="73" spans="1:19" ht="27" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C73" s="92" t="s">
+        <v>951</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>792</v>
-      </c>
-      <c r="C73" s="93" t="s">
-        <v>952</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>793</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>556</v>
@@ -8618,10 +8578,10 @@
         <v>292</v>
       </c>
       <c r="R73" s="42" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="27" customHeight="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="27" customHeight="1">
       <c r="A74" s="21" t="s">
         <v>37</v>
       </c>
@@ -8674,7 +8634,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="27" customHeight="1">
+    <row r="75" spans="1:19" ht="27" customHeight="1">
       <c r="A75" s="21" t="s">
         <v>37</v>
       </c>
@@ -8723,9 +8683,8 @@
       <c r="P75" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="42"/>
-    </row>
-    <row r="76" spans="1:20" s="42" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="76" spans="1:19" s="42" customFormat="1" ht="27" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>37</v>
       </c>
@@ -8779,7 +8738,7 @@
       </c>
       <c r="R76" s="51"/>
     </row>
-    <row r="77" spans="1:20" ht="27" customHeight="1">
+    <row r="77" spans="1:19" ht="27" customHeight="1">
       <c r="A77" s="21" t="s">
         <v>37</v>
       </c>
@@ -8834,9 +8793,8 @@
       <c r="R77" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="S77" s="42"/>
-    </row>
-    <row r="78" spans="1:20" s="41" customFormat="1" ht="27" customHeight="1">
+    </row>
+    <row r="78" spans="1:19" s="41" customFormat="1" ht="27" customHeight="1">
       <c r="A78" s="41" t="s">
         <v>37</v>
       </c>
@@ -8888,20 +8846,19 @@
       <c r="Q78" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="S78" s="46"/>
-    </row>
-    <row r="79" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="79" spans="1:19" ht="27" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="D79" s="21" t="s">
         <v>797</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>798</v>
       </c>
       <c r="E79" s="43" t="s">
         <v>474</v>
@@ -8943,11 +8900,10 @@
         <v>292</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="S79" s="42"/>
-    </row>
-    <row r="80" spans="1:20" s="28" customFormat="1" ht="27" customHeight="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="28" customFormat="1" ht="27" customHeight="1">
       <c r="A80" s="21" t="s">
         <v>37</v>
       </c>
@@ -9002,9 +8958,9 @@
       <c r="R80" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="T80" s="17"/>
-    </row>
-    <row r="81" spans="1:19" ht="27" customHeight="1">
+      <c r="S80" s="17"/>
+    </row>
+    <row r="81" spans="1:18" ht="27" customHeight="1">
       <c r="A81" s="21" t="s">
         <v>37</v>
       </c>
@@ -9055,7 +9011,7 @@
       </c>
       <c r="R81" s="41"/>
     </row>
-    <row r="82" spans="1:19" ht="27" customHeight="1">
+    <row r="82" spans="1:18" ht="27" customHeight="1">
       <c r="A82" s="21" t="s">
         <v>37</v>
       </c>
@@ -9108,7 +9064,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" customHeight="1">
+    <row r="83" spans="1:18" ht="27" customHeight="1">
       <c r="A83" s="21" t="s">
         <v>37</v>
       </c>
@@ -9161,7 +9117,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" customHeight="1">
+    <row r="84" spans="1:18" ht="27" customHeight="1">
       <c r="A84" s="21" t="s">
         <v>37</v>
       </c>
@@ -9214,7 +9170,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" customHeight="1">
+    <row r="85" spans="1:18" ht="27" customHeight="1">
       <c r="A85" s="21" t="s">
         <v>37</v>
       </c>
@@ -9267,18 +9223,18 @@
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="27" customHeight="1">
+    <row r="86" spans="1:18" ht="27" customHeight="1">
       <c r="A86" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B86" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="E86" s="17" t="s">
         <v>837</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>838</v>
       </c>
       <c r="F86" s="17">
         <v>60.687199999999997</v>
@@ -9296,42 +9252,42 @@
         <v>35</v>
       </c>
       <c r="K86" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L86" s="17" t="s">
         <v>64</v>
       </c>
       <c r="M86" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N86" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O86" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="P86" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="P86" s="17" t="s">
+      <c r="Q86" s="41" t="s">
         <v>840</v>
       </c>
-      <c r="Q86" s="41" t="s">
+      <c r="R86" s="62" t="s">
         <v>841</v>
       </c>
-      <c r="R86" s="62" t="s">
+    </row>
+    <row r="87" spans="1:18" ht="27" customHeight="1">
+      <c r="A87" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="61" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" ht="27" customHeight="1">
-      <c r="A87" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="61" t="s">
+      <c r="D87" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="E87" s="17" t="s">
         <v>844</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>845</v>
       </c>
       <c r="F87" s="17">
         <v>60.6188</v>
@@ -9349,42 +9305,42 @@
         <v>35</v>
       </c>
       <c r="K87" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L87" s="17" t="s">
         <v>64</v>
       </c>
       <c r="M87" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N87" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O87" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P87" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q87" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="Q87" s="41" t="s">
+      <c r="R87" s="62" t="s">
         <v>847</v>
       </c>
-      <c r="R87" s="62" t="s">
+    </row>
+    <row r="88" spans="1:18" ht="27" customHeight="1">
+      <c r="A88" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="61" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" ht="27" customHeight="1">
-      <c r="A88" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="61" t="s">
+      <c r="D88" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="E88" s="17" t="s">
         <v>850</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>851</v>
       </c>
       <c r="F88" s="17">
         <v>60.485799999999998</v>
@@ -9402,42 +9358,42 @@
         <v>35</v>
       </c>
       <c r="K88" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L88" s="17" t="s">
         <v>64</v>
       </c>
       <c r="M88" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N88" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O88" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P88" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Q88" s="41" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R88" s="62" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="27" customHeight="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="27" customHeight="1">
       <c r="A89" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="61" t="s">
+        <v>851</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="E89" s="17" t="s">
         <v>853</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>854</v>
       </c>
       <c r="F89" s="17">
         <v>60.841099999999997</v>
@@ -9455,31 +9411,31 @@
         <v>35</v>
       </c>
       <c r="K89" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L89" s="17" t="s">
         <v>64</v>
       </c>
       <c r="M89" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="N89" s="17" t="s">
         <v>156</v>
       </c>
       <c r="O89" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P89" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q89" s="41" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R89" s="62" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="27" customHeight="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="27" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>37</v>
       </c>
@@ -9506,7 +9462,7 @@
         <v>2013</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K90" s="34" t="s">
         <v>172</v>
@@ -9530,23 +9486,22 @@
         <v>318</v>
       </c>
       <c r="R90" s="57" t="s">
-        <v>902</v>
-      </c>
-      <c r="S90" s="80"/>
-    </row>
-    <row r="91" spans="1:19" ht="27" customHeight="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="27" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B91" s="72" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C91" s="34"/>
       <c r="D91" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="E91" s="33" t="s">
         <v>763</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>764</v>
       </c>
       <c r="F91" s="34">
         <v>57.79</v>
@@ -9561,34 +9516,34 @@
         <v>44835</v>
       </c>
       <c r="J91" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K91" s="33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L91" s="33" t="s">
         <v>36</v>
       </c>
       <c r="M91" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="N91" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="O91" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="N91" s="33" t="s">
-        <v>748</v>
-      </c>
-      <c r="O91" s="33" t="s">
+      <c r="P91" s="33" t="s">
         <v>767</v>
-      </c>
-      <c r="P91" s="33" t="s">
-        <v>768</v>
       </c>
       <c r="Q91" s="57" t="s">
         <v>318</v>
       </c>
       <c r="R91" s="57" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="27" customHeight="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="27" customHeight="1">
       <c r="A92" s="34" t="s">
         <v>37</v>
       </c>
@@ -9615,7 +9570,7 @@
         <v>42913</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K92" s="34" t="s">
         <v>178</v>
@@ -9639,11 +9594,10 @@
         <v>318</v>
       </c>
       <c r="R92" s="33" t="s">
-        <v>771</v>
-      </c>
-      <c r="S92" s="42"/>
-    </row>
-    <row r="93" spans="1:19" ht="27" customHeight="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="27" customHeight="1">
       <c r="A93" s="21" t="s">
         <v>37</v>
       </c>
@@ -9695,23 +9649,22 @@
       <c r="R93" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="S93" s="42"/>
-    </row>
-    <row r="94" spans="1:19" ht="27" customHeight="1">
+    </row>
+    <row r="94" spans="1:18" ht="27" customHeight="1">
       <c r="A94" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B94" s="43" t="s">
+        <v>696</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="C94" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>698</v>
-      </c>
       <c r="E94" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F94" s="17">
         <v>61.131700000000002</v>
@@ -9726,49 +9679,48 @@
         <v>44447</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L94" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N94" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O94" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="P94" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q94" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="R94" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="P94" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q94" s="21" t="s">
+    </row>
+    <row r="95" spans="1:18" ht="27" customHeight="1">
+      <c r="A95" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="43" t="s">
         <v>703</v>
       </c>
-      <c r="R94" s="21" t="s">
-        <v>702</v>
-      </c>
-      <c r="S94" s="42"/>
-    </row>
-    <row r="95" spans="1:19" ht="27" customHeight="1">
-      <c r="A95" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="43" t="s">
+      <c r="C95" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="D95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>705</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>706</v>
       </c>
       <c r="F95" s="17">
         <v>61.141800000000003</v>
@@ -9783,49 +9735,48 @@
         <v>44443</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L95" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M95" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N95" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O95" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q95" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="R95" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="P95" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q95" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="R95" s="21" t="s">
-        <v>702</v>
-      </c>
-      <c r="S95" s="42"/>
-    </row>
-    <row r="96" spans="1:19" ht="27" customHeight="1">
+    </row>
+    <row r="96" spans="1:18" ht="27" customHeight="1">
       <c r="A96" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C96" s="21" t="s">
         <v>391</v>
       </c>
       <c r="D96" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="E96" s="21" t="s">
         <v>724</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>725</v>
       </c>
       <c r="F96" s="17">
         <v>57.089100000000002</v>
@@ -9843,46 +9794,45 @@
         <v>35</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L96" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N96" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O96" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P96" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q96" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R96" s="21" t="s">
-        <v>709</v>
-      </c>
-      <c r="S96" s="42"/>
-    </row>
-    <row r="97" spans="1:20" ht="27" customHeight="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="27" customHeight="1">
       <c r="A97" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C97" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D97" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="E97" s="21" t="s">
         <v>721</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>722</v>
       </c>
       <c r="F97" s="17">
         <v>61.028799999999997</v>
@@ -9900,46 +9850,45 @@
         <v>35</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L97" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N97" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P97" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q97" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R97" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="S97" s="42"/>
-    </row>
-    <row r="98" spans="1:20" ht="27" customHeight="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="27" customHeight="1">
       <c r="A98" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C98" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F98" s="17">
         <v>59.215600000000002</v>
@@ -9957,46 +9906,45 @@
         <v>35</v>
       </c>
       <c r="K98" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L98" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M98" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N98" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O98" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P98" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q98" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R98" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="S98" s="42"/>
-    </row>
-    <row r="99" spans="1:20" ht="27" customHeight="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="27" customHeight="1">
       <c r="A99" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C99" s="21">
         <v>2015</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F99" s="17">
         <v>69.683599999999998</v>
@@ -10014,46 +9962,45 @@
         <v>35</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L99" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N99" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P99" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q99" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R99" s="21" t="s">
-        <v>728</v>
-      </c>
-      <c r="S99" s="42"/>
-    </row>
-    <row r="100" spans="1:20" ht="27" customHeight="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="27" customHeight="1">
       <c r="A100" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C100" s="21">
         <v>2016</v>
       </c>
       <c r="D100" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>860</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>861</v>
       </c>
       <c r="F100" s="17">
         <v>59.398600000000002</v>
@@ -10071,46 +10018,45 @@
         <v>35</v>
       </c>
       <c r="K100" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L100" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N100" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O100" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="P100" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q100" s="21" t="s">
         <v>862</v>
       </c>
-      <c r="P100" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q100" s="21" t="s">
+      <c r="R100" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="R100" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="S100" s="42"/>
-    </row>
-    <row r="101" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="101" spans="1:19" ht="27" customHeight="1">
       <c r="A101" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C101" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F101" s="17">
         <v>58.455100000000002</v>
@@ -10122,19 +10068,19 @@
         <v>70</v>
       </c>
       <c r="I101" s="52" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J101" s="21" t="s">
         <v>35</v>
       </c>
       <c r="K101" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L101" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M101" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N101" s="21" t="s">
         <v>54</v>
@@ -10143,17 +10089,16 @@
         <v>444</v>
       </c>
       <c r="P101" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q101" s="17" t="s">
         <v>377</v>
       </c>
       <c r="R101" s="21" t="s">
-        <v>1123</v>
-      </c>
-      <c r="S101" s="42"/>
-    </row>
-    <row r="102" spans="1:20" ht="27" customHeight="1">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="27" customHeight="1">
       <c r="A102" s="21" t="s">
         <v>37</v>
       </c>
@@ -10167,7 +10112,7 @@
         <v>187</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F102" s="17">
         <v>60.793332999999997</v>
@@ -10209,7 +10154,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="27" customHeight="1">
+    <row r="103" spans="1:19" ht="27" customHeight="1">
       <c r="A103" s="21" t="s">
         <v>37</v>
       </c>
@@ -10262,25 +10207,24 @@
         <v>377</v>
       </c>
       <c r="R103" s="21" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S103" s="42"/>
-    </row>
-    <row r="104" spans="1:20" ht="27" customHeight="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="27" customHeight="1">
       <c r="A104" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C104" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="D104" s="34" t="s">
         <v>909</v>
       </c>
-      <c r="D104" s="34" t="s">
-        <v>910</v>
-      </c>
       <c r="E104" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F104" s="34">
         <v>55.478200999999999</v>
@@ -10298,31 +10242,31 @@
         <v>35</v>
       </c>
       <c r="K104" s="34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L104" s="34" t="s">
         <v>36</v>
       </c>
       <c r="M104" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N104" s="34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O104" s="65" t="s">
         <v>444</v>
       </c>
       <c r="P104" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q104" s="65" t="s">
         <v>377</v>
       </c>
       <c r="R104" s="33" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="27" customHeight="1">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="27" customHeight="1">
       <c r="A105" s="21" t="s">
         <v>37</v>
       </c>
@@ -10336,7 +10280,7 @@
         <v>640</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F105" s="17">
         <v>66.074595000000002</v>
@@ -10351,7 +10295,7 @@
         <v>532</v>
       </c>
       <c r="J105" s="21" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K105" s="21" t="s">
         <v>188</v>
@@ -10369,7 +10313,7 @@
         <v>191</v>
       </c>
       <c r="P105" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q105" s="28" t="s">
         <v>377</v>
@@ -10378,21 +10322,21 @@
         <v>649</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="27" customHeight="1">
+    <row r="106" spans="1:19" ht="27" customHeight="1">
       <c r="A106" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>473</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F106" s="34">
         <v>59.037500000000001</v>
@@ -10407,7 +10351,7 @@
         <v>44628</v>
       </c>
       <c r="J106" s="33" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="K106" s="33" t="s">
         <v>37</v>
@@ -10431,13 +10375,10 @@
         <v>377</v>
       </c>
       <c r="R106" s="66" t="s">
-        <v>658</v>
-      </c>
-      <c r="S106" s="34" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" s="30" customFormat="1" ht="27" customHeight="1">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="30" customFormat="1" ht="27" customHeight="1">
       <c r="A107" s="34" t="s">
         <v>48</v>
       </c>
@@ -10451,22 +10392,22 @@
         <v>657</v>
       </c>
       <c r="E107" s="53" t="s">
-        <v>877</v>
-      </c>
-      <c r="F107" s="91">
+        <v>876</v>
+      </c>
+      <c r="F107" s="90">
         <v>59.037500000000001</v>
       </c>
-      <c r="G107" s="91">
+      <c r="G107" s="90">
         <v>-158.46510000000001</v>
       </c>
       <c r="H107" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I107" s="92">
+      <c r="I107" s="91">
         <v>44648</v>
       </c>
       <c r="J107" s="33" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="K107" s="53" t="s">
         <v>37</v>
@@ -10490,13 +10431,10 @@
         <v>377</v>
       </c>
       <c r="R107" s="66" t="s">
-        <v>658</v>
-      </c>
-      <c r="S107" s="34" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" ht="27" customHeight="1">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="27" customHeight="1">
       <c r="A108" s="21" t="s">
         <v>37</v>
       </c>
@@ -10552,7 +10490,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="27" customHeight="1">
+    <row r="109" spans="1:19" ht="27" customHeight="1">
       <c r="A109" s="21" t="s">
         <v>37</v>
       </c>
@@ -10566,7 +10504,7 @@
         <v>638</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F109" s="17">
         <v>59.939</v>
@@ -10608,7 +10546,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="27" customHeight="1">
+    <row r="110" spans="1:19" ht="27" customHeight="1">
       <c r="A110" s="21" t="s">
         <v>37</v>
       </c>
@@ -10622,7 +10560,7 @@
         <v>637</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F110" s="17">
         <v>67.730800000000002</v>
@@ -10637,7 +10575,7 @@
         <v>44714</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K110" s="21" t="s">
         <v>188</v>
@@ -10662,7 +10600,7 @@
       </c>
       <c r="R110" s="21"/>
     </row>
-    <row r="111" spans="1:20" ht="27" customHeight="1">
+    <row r="111" spans="1:19" ht="27" customHeight="1">
       <c r="A111" s="21" t="s">
         <v>37</v>
       </c>
@@ -10670,13 +10608,13 @@
         <v>378</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>655</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F111" s="17">
         <v>66.895034999999993</v>
@@ -10709,7 +10647,7 @@
         <v>191</v>
       </c>
       <c r="P111" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q111" s="28" t="s">
         <v>377</v>
@@ -10717,9 +10655,8 @@
       <c r="R111" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="S111" s="21"/>
-    </row>
-    <row r="112" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="112" spans="1:19" ht="27" customHeight="1">
       <c r="A112" s="31" t="s">
         <v>37</v>
       </c>
@@ -10774,10 +10711,9 @@
       <c r="R112" s="69" t="s">
         <v>634</v>
       </c>
-      <c r="S112" s="31"/>
-      <c r="T112" s="28"/>
-    </row>
-    <row r="113" spans="1:20" ht="27" customHeight="1">
+      <c r="S112" s="28"/>
+    </row>
+    <row r="113" spans="1:19" ht="27" customHeight="1">
       <c r="A113" s="21" t="s">
         <v>37</v>
       </c>
@@ -10788,7 +10724,7 @@
         <v>391</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>449</v>
@@ -10824,16 +10760,16 @@
         <v>444</v>
       </c>
       <c r="P113" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q113" s="21" t="s">
         <v>377</v>
       </c>
       <c r="R113" s="36" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="27" customHeight="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="27" customHeight="1">
       <c r="A114" s="31" t="s">
         <v>37</v>
       </c>
@@ -10841,7 +10777,7 @@
         <v>447</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>636</v>
@@ -10871,7 +10807,7 @@
         <v>36</v>
       </c>
       <c r="M114" s="31" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="N114" s="31" t="s">
         <v>190</v>
@@ -10886,12 +10822,11 @@
         <v>377</v>
       </c>
       <c r="R114" s="69" t="s">
-        <v>897</v>
-      </c>
-      <c r="S114" s="31"/>
-      <c r="T114" s="28"/>
-    </row>
-    <row r="115" spans="1:20" ht="27" customHeight="1">
+        <v>896</v>
+      </c>
+      <c r="S114" s="28"/>
+    </row>
+    <row r="115" spans="1:19" ht="27" customHeight="1">
       <c r="A115" s="21" t="s">
         <v>37</v>
       </c>
@@ -10946,23 +10881,22 @@
       <c r="R115" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="S115" s="42"/>
-    </row>
-    <row r="116" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="116" spans="1:19" ht="27" customHeight="1">
       <c r="A116" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D116" s="33" t="s">
         <v>536</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F116" s="34">
         <v>63.483961999999998</v>
@@ -10974,7 +10908,7 @@
         <v>70</v>
       </c>
       <c r="I116" s="59" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J116" s="33" t="s">
         <v>35</v>
@@ -10986,7 +10920,7 @@
         <v>545</v>
       </c>
       <c r="M116" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N116" s="33" t="s">
         <v>439</v>
@@ -11001,11 +10935,10 @@
         <v>377</v>
       </c>
       <c r="R116" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="S116" s="42"/>
-    </row>
-    <row r="117" spans="1:20" ht="27" customHeight="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="27" customHeight="1">
       <c r="A117" s="21" t="s">
         <v>37</v>
       </c>
@@ -11019,7 +10952,7 @@
         <v>536</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F117" s="17">
         <v>63.484000000000002</v>
@@ -11031,7 +10964,7 @@
         <v>70</v>
       </c>
       <c r="I117" s="52" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J117" s="21" t="s">
         <v>35</v>
@@ -11058,11 +10991,10 @@
         <v>377</v>
       </c>
       <c r="R117" s="21" t="s">
-        <v>941</v>
-      </c>
-      <c r="S117" s="42"/>
-    </row>
-    <row r="118" spans="1:20" ht="27" customHeight="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="27" customHeight="1">
       <c r="A118" s="21" t="s">
         <v>37</v>
       </c>
@@ -11076,7 +11008,7 @@
         <v>534</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F118" s="17">
         <v>60.578200000000002</v>
@@ -11088,7 +11020,7 @@
         <v>70</v>
       </c>
       <c r="I118" s="47" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J118" s="21" t="s">
         <v>35</v>
@@ -11115,12 +11047,11 @@
         <v>310</v>
       </c>
       <c r="R118" s="21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="S118" s="28"/>
-      <c r="T118" s="28"/>
-    </row>
-    <row r="119" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="119" spans="1:19" ht="27" customHeight="1">
       <c r="A119" s="21" t="s">
         <v>48</v>
       </c>
@@ -11149,7 +11080,7 @@
         <v>44467</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K119" s="21" t="s">
         <v>37</v>
@@ -11175,23 +11106,22 @@
       <c r="R119" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="S119" s="42"/>
-    </row>
-    <row r="120" spans="1:20" ht="27" customHeight="1">
+    </row>
+    <row r="120" spans="1:19" ht="27" customHeight="1">
       <c r="A120" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B120" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C120" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="D120" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="D120" s="21" t="s">
+      <c r="E120" s="21" t="s">
         <v>921</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>922</v>
       </c>
       <c r="F120" s="17">
         <v>60.776997999999999</v>
@@ -11215,7 +11145,7 @@
         <v>47</v>
       </c>
       <c r="M120" s="21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N120" s="21" t="s">
         <v>445</v>
@@ -11224,31 +11154,30 @@
         <v>444</v>
       </c>
       <c r="P120" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Q120" s="17" t="s">
         <v>377</v>
       </c>
       <c r="R120" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="S120" s="42"/>
-    </row>
-    <row r="121" spans="1:20" ht="27" customHeight="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="27" customHeight="1">
       <c r="A121" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B121" s="53" t="s">
+        <v>929</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="D121" s="33" t="s">
         <v>930</v>
       </c>
-      <c r="C121" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="D121" s="33" t="s">
+      <c r="E121" s="33" t="s">
         <v>931</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>932</v>
       </c>
       <c r="F121" s="34">
         <v>60.776995999999997</v>
@@ -11257,7 +11186,7 @@
         <v>-148.68159199999999</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I121" s="59">
         <v>45382</v>
@@ -11266,46 +11195,45 @@
         <v>35</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L121" s="34" t="s">
         <v>36</v>
       </c>
       <c r="M121" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N121" s="34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O121" s="65" t="s">
         <v>444</v>
       </c>
       <c r="P121" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q121" s="65" t="s">
         <v>377</v>
       </c>
       <c r="R121" s="33" t="s">
-        <v>935</v>
-      </c>
-      <c r="S121" s="42"/>
-    </row>
-    <row r="122" spans="1:20" ht="27" customHeight="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="27" customHeight="1">
       <c r="A122" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="53" t="s">
+        <v>925</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="D122" s="33" t="s">
         <v>926</v>
       </c>
-      <c r="C122" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="D122" s="33" t="s">
+      <c r="E122" s="33" t="s">
         <v>927</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>928</v>
       </c>
       <c r="F122" s="34">
         <v>56.473553000000003</v>
@@ -11323,32 +11251,31 @@
         <v>35</v>
       </c>
       <c r="K122" s="34" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L122" s="34" t="s">
         <v>36</v>
       </c>
       <c r="M122" s="34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="N122" s="34" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O122" s="65" t="s">
         <v>444</v>
       </c>
       <c r="P122" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q122" s="65" t="s">
         <v>377</v>
       </c>
       <c r="R122" s="33" t="s">
-        <v>929</v>
-      </c>
-      <c r="S122" s="42"/>
-    </row>
-    <row r="123" spans="1:20" ht="27" customHeight="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="27" customHeight="1">
       <c r="A123" s="21" t="s">
         <v>37</v>
       </c>
@@ -11383,10 +11310,10 @@
         <v>36</v>
       </c>
       <c r="M123" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N123" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N123" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O123" s="17" t="s">
         <v>226</v>
@@ -11398,10 +11325,10 @@
         <v>307</v>
       </c>
       <c r="R123" s="17" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" ht="27" customHeight="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="27" customHeight="1">
       <c r="A124" s="21" t="s">
         <v>37</v>
       </c>
@@ -11436,10 +11363,10 @@
         <v>36</v>
       </c>
       <c r="M124" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N124" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N124" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O124" s="17" t="s">
         <v>226</v>
@@ -11451,10 +11378,10 @@
         <v>306</v>
       </c>
       <c r="R124" s="17" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="27" customHeight="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="27" customHeight="1">
       <c r="A125" s="21" t="s">
         <v>37</v>
       </c>
@@ -11489,10 +11416,10 @@
         <v>36</v>
       </c>
       <c r="M125" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N125" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N125" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O125" s="17" t="s">
         <v>226</v>
@@ -11504,10 +11431,10 @@
         <v>308</v>
       </c>
       <c r="R125" s="17" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="27" customHeight="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="27" customHeight="1">
       <c r="A126" s="21" t="s">
         <v>37</v>
       </c>
@@ -11542,10 +11469,10 @@
         <v>36</v>
       </c>
       <c r="M126" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N126" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N126" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O126" s="17" t="s">
         <v>226</v>
@@ -11557,10 +11484,10 @@
         <v>308</v>
       </c>
       <c r="R126" s="17" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="27" customHeight="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="27" customHeight="1">
       <c r="A127" s="21" t="s">
         <v>37</v>
       </c>
@@ -11595,10 +11522,10 @@
         <v>36</v>
       </c>
       <c r="M127" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N127" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N127" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O127" s="17" t="s">
         <v>226</v>
@@ -11610,10 +11537,10 @@
         <v>309</v>
       </c>
       <c r="R127" s="17" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" ht="27" customHeight="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="27" customHeight="1">
       <c r="A128" s="21" t="s">
         <v>37</v>
       </c>
@@ -11648,10 +11575,10 @@
         <v>36</v>
       </c>
       <c r="M128" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N128" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N128" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O128" s="17" t="s">
         <v>226</v>
@@ -11663,9 +11590,8 @@
         <v>308</v>
       </c>
       <c r="R128" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="S128" s="21"/>
+        <v>917</v>
+      </c>
     </row>
     <row r="129" spans="1:18" ht="27" customHeight="1">
       <c r="A129" s="21" t="s">
@@ -11702,10 +11628,10 @@
         <v>36</v>
       </c>
       <c r="M129" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N129" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N129" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O129" s="17" t="s">
         <v>226</v>
@@ -11717,7 +11643,7 @@
         <v>307</v>
       </c>
       <c r="R129" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="27" customHeight="1">
@@ -11755,10 +11681,10 @@
         <v>36</v>
       </c>
       <c r="M130" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="N130" s="17" t="s">
         <v>888</v>
-      </c>
-      <c r="N130" s="17" t="s">
-        <v>889</v>
       </c>
       <c r="O130" s="17" t="s">
         <v>226</v>
@@ -11770,7 +11696,7 @@
         <v>308</v>
       </c>
       <c r="R130" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="27" customHeight="1">
@@ -11831,13 +11757,13 @@
         <v>37</v>
       </c>
       <c r="B132" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="E132" s="21" t="s">
         <v>865</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>871</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>866</v>
       </c>
       <c r="F132" s="18">
         <v>60.225499999999997</v>
@@ -11867,16 +11793,16 @@
         <v>38</v>
       </c>
       <c r="O132" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="P132" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="P132" s="21" t="s">
+      <c r="Q132" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="R132" s="17" t="s">
         <v>868</v>
-      </c>
-      <c r="Q132" s="21" t="s">
-        <v>870</v>
-      </c>
-      <c r="R132" s="17" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="27" customHeight="1">
@@ -11990,16 +11916,16 @@
         <v>48</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F135" s="18">
         <v>51.705100000000002</v>
@@ -12011,25 +11937,25 @@
         <v>411</v>
       </c>
       <c r="I135" s="35" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="J135" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L135" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M135" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N135" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O135" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P135" s="21" t="s">
         <v>493</v>
@@ -12038,7 +11964,7 @@
         <v>494</v>
       </c>
       <c r="R135" s="70" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="27" customHeight="1">
@@ -12046,16 +11972,16 @@
         <v>48</v>
       </c>
       <c r="B136" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C136" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="D136" s="21" t="s">
         <v>679</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="E136" s="21" t="s">
         <v>680</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>681</v>
       </c>
       <c r="F136" s="18">
         <v>51.707999999999998</v>
@@ -12067,34 +11993,34 @@
         <v>70</v>
       </c>
       <c r="I136" s="35" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J136" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L136" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M136" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N136" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O136" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P136" s="21" t="s">
         <v>517</v>
       </c>
       <c r="Q136" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R136" s="70" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="27" customHeight="1">
@@ -12102,16 +12028,16 @@
         <v>48</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D137" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="E137" s="21" t="s">
         <v>671</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>672</v>
       </c>
       <c r="F137" s="18">
         <v>51.756399999999999</v>
@@ -12123,25 +12049,25 @@
         <v>411</v>
       </c>
       <c r="I137" s="35" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J137" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L137" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N137" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O137" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P137" s="21" t="s">
         <v>493</v>
@@ -12150,7 +12076,7 @@
         <v>494</v>
       </c>
       <c r="R137" s="70" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="27" customHeight="1">
@@ -12158,16 +12084,16 @@
         <v>37</v>
       </c>
       <c r="B138" s="77" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D138" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="E138" s="21" t="s">
         <v>688</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>689</v>
       </c>
       <c r="F138" s="18">
         <v>51.874400000000001</v>
@@ -12179,13 +12105,13 @@
         <v>411</v>
       </c>
       <c r="I138" s="35" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J138" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L138" s="21" t="s">
         <v>64</v>
@@ -12197,7 +12123,7 @@
         <v>43</v>
       </c>
       <c r="O138" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P138" s="17" t="s">
         <v>493</v>
@@ -12206,7 +12132,7 @@
         <v>494</v>
       </c>
       <c r="R138" s="70" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="27" customHeight="1">
@@ -12235,13 +12161,13 @@
         <v>411</v>
       </c>
       <c r="I139" s="35" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="J139" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K139" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L139" s="17" t="s">
         <v>64</v>
@@ -12253,7 +12179,7 @@
         <v>43</v>
       </c>
       <c r="O139" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P139" s="17" t="s">
         <v>493</v>
@@ -12262,7 +12188,7 @@
         <v>518</v>
       </c>
       <c r="R139" s="70" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="27" customHeight="1">
@@ -12270,16 +12196,16 @@
         <v>37</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D140" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="E140" s="21" t="s">
         <v>685</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>686</v>
       </c>
       <c r="F140" s="18">
         <v>53.618499999999997</v>
@@ -12291,13 +12217,13 @@
         <v>70</v>
       </c>
       <c r="I140" s="35" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="J140" s="33" t="s">
         <v>35</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L140" s="21" t="s">
         <v>64</v>
@@ -12309,16 +12235,16 @@
         <v>43</v>
       </c>
       <c r="O140" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P140" s="21" t="s">
         <v>517</v>
       </c>
       <c r="Q140" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R140" s="70" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="27" customHeight="1">
@@ -12326,16 +12252,16 @@
         <v>37</v>
       </c>
       <c r="B141" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C141" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="D141" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="E141" s="21" t="s">
         <v>742</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>743</v>
       </c>
       <c r="F141" s="18">
         <v>60.558300000000003</v>
@@ -12347,34 +12273,34 @@
         <v>70</v>
       </c>
       <c r="I141" s="59" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J141" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L141" s="21" t="s">
         <v>36</v>
       </c>
       <c r="M141" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="N141" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="N141" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="O141" s="21" t="s">
         <v>226</v>
       </c>
       <c r="P141" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q141" s="56" t="s">
         <v>749</v>
       </c>
-      <c r="Q141" s="56" t="s">
-        <v>750</v>
-      </c>
       <c r="R141" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="27" customHeight="1">
@@ -12382,16 +12308,16 @@
         <v>37</v>
       </c>
       <c r="B142" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C142" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="D142" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="D142" s="21" t="s">
-        <v>754</v>
-      </c>
       <c r="E142" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F142" s="18">
         <v>61.124200000000002</v>
@@ -12403,34 +12329,34 @@
         <v>70</v>
       </c>
       <c r="I142" s="52" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J142" s="21" t="s">
         <v>35</v>
       </c>
       <c r="K142" s="21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L142" s="21" t="s">
         <v>36</v>
       </c>
       <c r="M142" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="N142" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="N142" s="21" t="s">
+      <c r="O142" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="P142" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="O142" s="21" t="s">
-        <v>751</v>
-      </c>
-      <c r="P142" s="21" t="s">
+      <c r="Q142" s="56" t="s">
         <v>749</v>
       </c>
-      <c r="Q142" s="56" t="s">
-        <v>750</v>
-      </c>
       <c r="R142" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="27" customHeight="1">
@@ -12438,55 +12364,55 @@
         <v>37</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>970</v>
-      </c>
-      <c r="F143" s="89">
+        <v>968</v>
+      </c>
+      <c r="F143" s="88">
         <v>68.5899</v>
       </c>
-      <c r="G143" s="89">
+      <c r="G143" s="88">
         <v>-166.30240000000001</v>
       </c>
-      <c r="H143" s="90" t="s">
+      <c r="H143" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I143" s="59" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J143" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K143" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L143" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M143" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M143" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N143" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O143" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P143" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q143" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P143" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q143" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R143" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="27" customHeight="1">
@@ -12494,55 +12420,55 @@
         <v>37</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>969</v>
-      </c>
-      <c r="F144" s="89">
+        <v>967</v>
+      </c>
+      <c r="F144" s="88">
         <v>68.214399999999998</v>
       </c>
-      <c r="G144" s="89">
+      <c r="G144" s="88">
         <v>-166.20160000000001</v>
       </c>
-      <c r="H144" s="90" t="s">
+      <c r="H144" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I144" s="59" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J144" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L144" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M144" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M144" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N144" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O144" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P144" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q144" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P144" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q144" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R144" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="27" customHeight="1">
@@ -12550,55 +12476,55 @@
         <v>37</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>968</v>
-      </c>
-      <c r="F145" s="89">
+        <v>966</v>
+      </c>
+      <c r="F145" s="88">
         <v>71.091099999999997</v>
       </c>
-      <c r="G145" s="89">
+      <c r="G145" s="88">
         <v>-155.40860000000001</v>
       </c>
-      <c r="H145" s="90" t="s">
+      <c r="H145" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I145" s="59" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J145" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K145" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L145" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M145" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M145" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N145" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O145" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P145" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q145" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P145" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q145" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R145" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="27" customHeight="1">
@@ -12606,55 +12532,55 @@
         <v>37</v>
       </c>
       <c r="B146" s="33" t="s">
+        <v>971</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>972</v>
+      </c>
+      <c r="E146" s="33" t="s">
         <v>973</v>
       </c>
-      <c r="C146" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D146" s="33" t="s">
+      <c r="F146" s="88">
+        <v>63.7592</v>
+      </c>
+      <c r="G146" s="88">
+        <v>-171.84729999999999</v>
+      </c>
+      <c r="H146" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146" s="59" t="s">
         <v>974</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="F146" s="89">
-        <v>63.7592</v>
-      </c>
-      <c r="G146" s="89">
-        <v>-171.84729999999999</v>
-      </c>
-      <c r="H146" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I146" s="59" t="s">
-        <v>976</v>
       </c>
       <c r="J146" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K146" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L146" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M146" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M146" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N146" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O146" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P146" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q146" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P146" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q146" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R146" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="27" customHeight="1">
@@ -12662,55 +12588,55 @@
         <v>37</v>
       </c>
       <c r="B147" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="E147" s="33" t="s">
         <v>977</v>
       </c>
-      <c r="C147" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D147" s="33" t="s">
+      <c r="F147" s="88">
+        <v>71.2303</v>
+      </c>
+      <c r="G147" s="88">
+        <v>-155.9272</v>
+      </c>
+      <c r="H147" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I147" s="59" t="s">
         <v>978</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>979</v>
-      </c>
-      <c r="F147" s="89">
-        <v>71.2303</v>
-      </c>
-      <c r="G147" s="89">
-        <v>-155.9272</v>
-      </c>
-      <c r="H147" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I147" s="59" t="s">
-        <v>980</v>
       </c>
       <c r="J147" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K147" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L147" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M147" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M147" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N147" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O147" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P147" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q147" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P147" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q147" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R147" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="27" customHeight="1">
@@ -12718,55 +12644,55 @@
         <v>37</v>
       </c>
       <c r="B148" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="F148" s="88">
+        <v>70.302999999999997</v>
+      </c>
+      <c r="G148" s="88">
+        <v>-143.73400000000001</v>
+      </c>
+      <c r="H148" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148" s="59" t="s">
         <v>981</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>982</v>
-      </c>
-      <c r="F148" s="89">
-        <v>70.302999999999997</v>
-      </c>
-      <c r="G148" s="89">
-        <v>-143.73400000000001</v>
-      </c>
-      <c r="H148" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I148" s="59" t="s">
-        <v>983</v>
       </c>
       <c r="J148" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K148" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L148" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M148" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M148" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N148" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O148" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P148" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q148" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P148" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q148" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R148" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" customHeight="1">
@@ -12774,55 +12700,55 @@
         <v>37</v>
       </c>
       <c r="B149" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="E149" s="33" t="s">
         <v>988</v>
       </c>
-      <c r="C149" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D149" s="33" t="s">
+      <c r="F149" s="88">
+        <v>70.165000000000006</v>
+      </c>
+      <c r="G149" s="88">
+        <v>-143.62299999999999</v>
+      </c>
+      <c r="H149" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149" s="59" t="s">
         <v>989</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>990</v>
-      </c>
-      <c r="F149" s="89">
-        <v>70.165000000000006</v>
-      </c>
-      <c r="G149" s="89">
-        <v>-143.62299999999999</v>
-      </c>
-      <c r="H149" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I149" s="59" t="s">
-        <v>991</v>
       </c>
       <c r="J149" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L149" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M149" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M149" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N149" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O149" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P149" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q149" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P149" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q149" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R149" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="27" customHeight="1">
@@ -12830,55 +12756,55 @@
         <v>37</v>
       </c>
       <c r="B150" s="33" t="s">
+        <v>982</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D150" s="33" t="s">
         <v>984</v>
       </c>
-      <c r="C150" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>986</v>
-      </c>
       <c r="E150" s="33" t="s">
-        <v>987</v>
-      </c>
-      <c r="F150" s="89">
+        <v>985</v>
+      </c>
+      <c r="F150" s="88">
         <v>70.236999999999995</v>
       </c>
-      <c r="G150" s="89">
+      <c r="G150" s="88">
         <v>-143.69</v>
       </c>
-      <c r="H150" s="90" t="s">
+      <c r="H150" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I150" s="59" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J150" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K150" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L150" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M150" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M150" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N150" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O150" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P150" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q150" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P150" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q150" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R150" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="27" customHeight="1">
@@ -12886,55 +12812,55 @@
         <v>37</v>
       </c>
       <c r="B151" s="33" t="s">
+        <v>990</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D151" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="E151" s="33" t="s">
         <v>992</v>
       </c>
-      <c r="C151" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D151" s="33" t="s">
+      <c r="F151" s="88">
+        <v>65.727800000000002</v>
+      </c>
+      <c r="G151" s="88">
+        <v>-168.9539</v>
+      </c>
+      <c r="H151" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I151" s="59" t="s">
         <v>993</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>994</v>
-      </c>
-      <c r="F151" s="89">
-        <v>65.727800000000002</v>
-      </c>
-      <c r="G151" s="89">
-        <v>-168.9539</v>
-      </c>
-      <c r="H151" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I151" s="59" t="s">
-        <v>995</v>
       </c>
       <c r="J151" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K151" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L151" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M151" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M151" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N151" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O151" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P151" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q151" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P151" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q151" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R151" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="27" customHeight="1">
@@ -12942,55 +12868,55 @@
         <v>37</v>
       </c>
       <c r="B152" s="33" t="s">
+        <v>994</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>995</v>
+      </c>
+      <c r="E152" s="33" t="s">
         <v>996</v>
       </c>
-      <c r="C152" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>997</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="F152" s="89">
+      <c r="F152" s="88">
         <v>65.725200000000001</v>
       </c>
-      <c r="G152" s="89">
+      <c r="G152" s="88">
         <v>-168.93860000000001</v>
       </c>
-      <c r="H152" s="90" t="s">
+      <c r="H152" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I152" s="59" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J152" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K152" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L152" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M152" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M152" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N152" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O152" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P152" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q152" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P152" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q152" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R152" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="27" customHeight="1">
@@ -12998,55 +12924,55 @@
         <v>37</v>
       </c>
       <c r="B153" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="E153" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="C153" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D153" s="33" t="s">
+      <c r="F153" s="88">
+        <v>71.296000000000006</v>
+      </c>
+      <c r="G153" s="88">
+        <v>-155.77619999999999</v>
+      </c>
+      <c r="H153" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153" s="59" t="s">
         <v>1000</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F153" s="89">
-        <v>71.296000000000006</v>
-      </c>
-      <c r="G153" s="89">
-        <v>-155.77619999999999</v>
-      </c>
-      <c r="H153" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I153" s="59" t="s">
-        <v>1002</v>
       </c>
       <c r="J153" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K153" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L153" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M153" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M153" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N153" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O153" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P153" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q153" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P153" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q153" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R153" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="27" customHeight="1">
@@ -13054,55 +12980,55 @@
         <v>37</v>
       </c>
       <c r="B154" s="33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D154" s="33" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F154" s="88">
+        <v>71.396799999999999</v>
+      </c>
+      <c r="G154" s="88">
+        <v>-155.5256</v>
+      </c>
+      <c r="H154" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154" s="59" t="s">
         <v>1003</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F154" s="89">
-        <v>71.396799999999999</v>
-      </c>
-      <c r="G154" s="89">
-        <v>-155.5256</v>
-      </c>
-      <c r="H154" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I154" s="59" t="s">
-        <v>1005</v>
       </c>
       <c r="J154" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K154" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L154" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M154" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M154" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N154" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O154" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P154" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q154" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P154" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q154" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R154" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="27" customHeight="1">
@@ -13110,55 +13036,55 @@
         <v>37</v>
       </c>
       <c r="B155" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F155" s="88">
+        <v>68.391300000000001</v>
+      </c>
+      <c r="G155" s="88">
+        <v>-166.70009999999999</v>
+      </c>
+      <c r="H155" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155" s="59" t="s">
         <v>1006</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F155" s="89">
-        <v>68.391300000000001</v>
-      </c>
-      <c r="G155" s="89">
-        <v>-166.70009999999999</v>
-      </c>
-      <c r="H155" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I155" s="59" t="s">
-        <v>1008</v>
       </c>
       <c r="J155" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K155" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L155" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M155" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M155" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N155" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O155" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P155" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q155" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P155" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q155" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R155" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="27" customHeight="1">
@@ -13166,55 +13092,55 @@
         <v>37</v>
       </c>
       <c r="B156" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F156" s="88">
+        <v>63.716000000000001</v>
+      </c>
+      <c r="G156" s="88">
+        <v>-170.4855</v>
+      </c>
+      <c r="H156" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156" s="59" t="s">
         <v>1009</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F156" s="89">
-        <v>63.716000000000001</v>
-      </c>
-      <c r="G156" s="89">
-        <v>-170.4855</v>
-      </c>
-      <c r="H156" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I156" s="59" t="s">
-        <v>1011</v>
       </c>
       <c r="J156" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K156" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L156" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M156" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M156" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N156" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O156" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P156" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q156" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P156" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q156" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R156" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="27" customHeight="1">
@@ -13222,55 +13148,55 @@
         <v>37</v>
       </c>
       <c r="B157" s="33" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F157" s="88">
+        <v>70.964699999999993</v>
+      </c>
+      <c r="G157" s="88">
+        <v>-157.77950000000001</v>
+      </c>
+      <c r="H157" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157" s="59" t="s">
         <v>1012</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F157" s="89">
-        <v>70.964699999999993</v>
-      </c>
-      <c r="G157" s="89">
-        <v>-157.77950000000001</v>
-      </c>
-      <c r="H157" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I157" s="59" t="s">
-        <v>1014</v>
       </c>
       <c r="J157" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K157" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L157" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M157" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M157" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N157" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O157" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P157" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q157" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P157" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q157" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R157" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="27" customHeight="1">
@@ -13278,55 +13204,55 @@
         <v>37</v>
       </c>
       <c r="B158" s="33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F158" s="88">
+        <v>71.391499999999994</v>
+      </c>
+      <c r="G158" s="88">
+        <v>-155.9323</v>
+      </c>
+      <c r="H158" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158" s="59" t="s">
         <v>1015</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E158" s="33" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F158" s="89">
-        <v>71.391499999999994</v>
-      </c>
-      <c r="G158" s="89">
-        <v>-155.9323</v>
-      </c>
-      <c r="H158" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I158" s="59" t="s">
-        <v>1017</v>
       </c>
       <c r="J158" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K158" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L158" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M158" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M158" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N158" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O158" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P158" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q158" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P158" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q158" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R158" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="27" customHeight="1">
@@ -13334,55 +13260,55 @@
         <v>37</v>
       </c>
       <c r="B159" s="33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E159" s="33" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F159" s="88">
+        <v>70.733900000000006</v>
+      </c>
+      <c r="G159" s="88">
+        <v>-160.2962</v>
+      </c>
+      <c r="H159" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I159" s="59" t="s">
         <v>1018</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F159" s="89">
-        <v>70.733900000000006</v>
-      </c>
-      <c r="G159" s="89">
-        <v>-160.2962</v>
-      </c>
-      <c r="H159" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I159" s="59" t="s">
-        <v>1020</v>
       </c>
       <c r="J159" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K159" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L159" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M159" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M159" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N159" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O159" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P159" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q159" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P159" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q159" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R159" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="27" customHeight="1">
@@ -13390,55 +13316,55 @@
         <v>37</v>
       </c>
       <c r="B160" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D160" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E160" s="33" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F160" s="88">
+        <v>70.688400000000001</v>
+      </c>
+      <c r="G160" s="88">
+        <v>-160.20169999999999</v>
+      </c>
+      <c r="H160" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160" s="59" t="s">
         <v>1021</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F160" s="89">
-        <v>70.688400000000001</v>
-      </c>
-      <c r="G160" s="89">
-        <v>-160.20169999999999</v>
-      </c>
-      <c r="H160" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I160" s="59" t="s">
-        <v>1023</v>
       </c>
       <c r="J160" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K160" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L160" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M160" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M160" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N160" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O160" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P160" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q160" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P160" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q160" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R160" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="27" customHeight="1">
@@ -13446,55 +13372,55 @@
         <v>37</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F161" s="89">
+        <v>1043</v>
+      </c>
+      <c r="F161" s="88">
         <v>70.716899999999995</v>
       </c>
-      <c r="G161" s="89">
+      <c r="G161" s="88">
         <v>-160.02930000000001</v>
       </c>
-      <c r="H161" s="90" t="s">
+      <c r="H161" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I161" s="59" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J161" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K161" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L161" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M161" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M161" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N161" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O161" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P161" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q161" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P161" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q161" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R161" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="27" customHeight="1">
@@ -13502,55 +13428,55 @@
         <v>37</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F162" s="89">
+        <v>1042</v>
+      </c>
+      <c r="F162" s="88">
         <v>70.6417</v>
       </c>
-      <c r="G162" s="89">
+      <c r="G162" s="88">
         <v>-160.12780000000001</v>
       </c>
-      <c r="H162" s="90" t="s">
+      <c r="H162" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I162" s="59" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J162" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K162" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L162" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M162" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M162" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N162" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O162" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P162" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q162" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P162" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q162" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R162" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="27" customHeight="1">
@@ -13558,55 +13484,55 @@
         <v>37</v>
       </c>
       <c r="B163" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E163" s="33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F163" s="88">
+        <v>70.700699999999998</v>
+      </c>
+      <c r="G163" s="88">
+        <v>-159.9949</v>
+      </c>
+      <c r="H163" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163" s="59" t="s">
         <v>1026</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E163" s="33" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F163" s="89">
-        <v>70.700699999999998</v>
-      </c>
-      <c r="G163" s="89">
-        <v>-159.9949</v>
-      </c>
-      <c r="H163" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I163" s="59" t="s">
-        <v>1028</v>
       </c>
       <c r="J163" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K163" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L163" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M163" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M163" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N163" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O163" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P163" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q163" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P163" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q163" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R163" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" customHeight="1">
@@ -13614,55 +13540,55 @@
         <v>37</v>
       </c>
       <c r="B164" s="33" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F164" s="88">
+        <v>70.608000000000004</v>
+      </c>
+      <c r="G164" s="88">
+        <v>-159.98419999999999</v>
+      </c>
+      <c r="H164" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164" s="59" t="s">
         <v>1029</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F164" s="89">
-        <v>70.608000000000004</v>
-      </c>
-      <c r="G164" s="89">
-        <v>-159.98419999999999</v>
-      </c>
-      <c r="H164" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I164" s="59" t="s">
-        <v>1031</v>
       </c>
       <c r="J164" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K164" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L164" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M164" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M164" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N164" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O164" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P164" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q164" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P164" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q164" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R164" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" customHeight="1">
@@ -13670,55 +13596,55 @@
         <v>37</v>
       </c>
       <c r="B165" s="33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F165" s="88">
+        <v>71.516000000000005</v>
+      </c>
+      <c r="G165" s="88">
+        <v>-157.4288</v>
+      </c>
+      <c r="H165" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165" s="59" t="s">
         <v>1037</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E165" s="33" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F165" s="89">
-        <v>71.516000000000005</v>
-      </c>
-      <c r="G165" s="89">
-        <v>-157.4288</v>
-      </c>
-      <c r="H165" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I165" s="59" t="s">
-        <v>1039</v>
       </c>
       <c r="J165" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K165" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L165" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M165" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M165" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N165" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O165" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P165" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q165" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P165" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q165" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R165" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="27" customHeight="1">
@@ -13726,55 +13652,55 @@
         <v>37</v>
       </c>
       <c r="B166" s="33" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F166" s="88">
+        <v>71.388900000000007</v>
+      </c>
+      <c r="G166" s="88">
+        <v>-157.14670000000001</v>
+      </c>
+      <c r="H166" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I166" s="59" t="s">
         <v>1034</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E166" s="33" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F166" s="89">
-        <v>71.388900000000007</v>
-      </c>
-      <c r="G166" s="89">
-        <v>-157.14670000000001</v>
-      </c>
-      <c r="H166" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I166" s="59" t="s">
-        <v>1036</v>
       </c>
       <c r="J166" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K166" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L166" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M166" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M166" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N166" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O166" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P166" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q166" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P166" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q166" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R166" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="27" customHeight="1">
@@ -13782,59 +13708,59 @@
         <v>37</v>
       </c>
       <c r="B167" s="33" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E167" s="33" t="s">
         <v>1053</v>
       </c>
-      <c r="C167" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D167" s="33" t="s">
+      <c r="F167" s="88">
+        <v>71.331599999999995</v>
+      </c>
+      <c r="G167" s="88">
+        <v>-156.99590000000001</v>
+      </c>
+      <c r="H167" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167" s="59" t="s">
         <v>1054</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F167" s="89">
-        <v>71.331599999999995</v>
-      </c>
-      <c r="G167" s="89">
-        <v>-156.99590000000001</v>
-      </c>
-      <c r="H167" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I167" s="59" t="s">
-        <v>1056</v>
       </c>
       <c r="J167" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K167" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L167" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M167" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M167" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N167" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O167" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P167" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q167" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P167" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q167" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R167" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S167" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R167" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R135" r:id="rId1" location="metadata/2213/sensor_source" display="https://portal.aoos.org/ - metadata/2213/sensor_source" xr:uid="{0625032E-3E12-A947-9759-A6B14F6D46AE}"/>
@@ -13968,7 +13894,7 @@
         <v>425</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="S2" s="42"/>
       <c r="T2" s="17"/>
@@ -14104,7 +14030,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>385</v>
@@ -14157,7 +14083,7 @@
         <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>385</v>
@@ -14210,7 +14136,7 @@
         <v>70</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>385</v>
@@ -14237,7 +14163,7 @@
         <v>292</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="S7" s="3"/>
     </row>
@@ -14264,7 +14190,7 @@
         <v>70</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>385</v>
@@ -14291,7 +14217,7 @@
         <v>292</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="41" customFormat="1" ht="270">
@@ -14320,7 +14246,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>35</v>
@@ -14347,7 +14273,7 @@
         <v>292</v>
       </c>
       <c r="R9" s="41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="S9" s="46"/>
     </row>
@@ -14401,10 +14327,10 @@
         <v>318</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="S10" s="79" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="17" customFormat="1" ht="194.1" customHeight="1">
@@ -14433,7 +14359,7 @@
         <v>2013</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>172</v>
@@ -14457,10 +14383,10 @@
         <v>318</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S11" s="80" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="409.5">
@@ -14489,7 +14415,7 @@
         <v>411</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>550</v>
@@ -14545,7 +14471,7 @@
         <v>411</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>550</v>
@@ -14575,7 +14501,7 @@
         <v>508</v>
       </c>
       <c r="S13" s="78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="409.5">
@@ -14604,7 +14530,7 @@
         <v>411</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>550</v>
@@ -14634,7 +14560,7 @@
         <v>507</v>
       </c>
       <c r="S14" s="78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="409.5">
@@ -14663,7 +14589,7 @@
         <v>411</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>550</v>
@@ -14698,16 +14624,16 @@
         <v>37</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C16" s="21">
         <v>2015</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F16" s="17">
         <v>61.236899999999999</v>
@@ -14719,34 +14645,34 @@
         <v>70</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N16" s="21" t="s">
         <v>190</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="S16" s="42"/>
     </row>
@@ -14920,7 +14846,7 @@
         <v>645</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>646</v>
@@ -14938,10 +14864,10 @@
         <v>70</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K20" s="21" t="s">
         <v>188</v>
@@ -14959,13 +14885,13 @@
         <v>647</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q20" s="31" t="s">
         <v>377</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
@@ -14975,16 +14901,16 @@
         <v>37</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F21" s="18">
         <v>51.683500000000002</v>
@@ -15002,19 +14928,19 @@
         <v>385</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N21" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>493</v>
@@ -15023,7 +14949,7 @@
         <v>494</v>
       </c>
       <c r="R21" s="70" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15031,16 +14957,16 @@
         <v>37</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>674</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>675</v>
       </c>
       <c r="F22" s="18">
         <v>51.738300000000002</v>
@@ -15058,19 +14984,19 @@
         <v>35</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>64</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P22" s="21" t="s">
         <v>493</v>
@@ -15079,7 +15005,7 @@
         <v>494</v>
       </c>
       <c r="R22" s="70" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15114,7 +15040,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>64</v>
@@ -15126,7 +15052,7 @@
         <v>43</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>493</v>
@@ -15135,7 +15061,7 @@
         <v>494</v>
       </c>
       <c r="R23" s="70" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15143,13 +15069,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>620</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>520</v>
@@ -15170,7 +15096,7 @@
         <v>385</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>64</v>
@@ -15188,7 +15114,7 @@
         <v>494</v>
       </c>
       <c r="R24" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15196,55 +15122,55 @@
         <v>37</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>1057</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="F25" s="88">
+        <v>71.659000000000006</v>
+      </c>
+      <c r="G25" s="88">
+        <v>-171.07400000000001</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="59" t="s">
         <v>1058</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F25" s="89">
-        <v>71.659000000000006</v>
-      </c>
-      <c r="G25" s="89">
-        <v>-171.07400000000001</v>
-      </c>
-      <c r="H25" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>1060</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L25" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M25" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M25" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N25" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O25" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R25" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15252,55 +15178,55 @@
         <v>37</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F26" s="88">
+        <v>68.149000000000001</v>
+      </c>
+      <c r="G26" s="88">
+        <v>-166.02699999999999</v>
+      </c>
+      <c r="H26" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="59" t="s">
         <v>1062</v>
-      </c>
-      <c r="F26" s="89">
-        <v>68.149000000000001</v>
-      </c>
-      <c r="G26" s="89">
-        <v>-166.02699999999999</v>
-      </c>
-      <c r="H26" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>1064</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L26" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M26" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N26" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O26" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P26" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R26" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15308,55 +15234,55 @@
         <v>37</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>1066</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D27" s="33" t="s">
+      <c r="F27" s="88">
+        <v>71.102000000000004</v>
+      </c>
+      <c r="G27" s="88">
+        <v>-155.38399999999999</v>
+      </c>
+      <c r="H27" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="59" t="s">
         <v>1067</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F27" s="89">
-        <v>71.102000000000004</v>
-      </c>
-      <c r="G27" s="89">
-        <v>-155.38399999999999</v>
-      </c>
-      <c r="H27" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>1069</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L27" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M27" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N27" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O27" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P27" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R27" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15364,55 +15290,55 @@
         <v>37</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E28" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F28" s="88">
+        <v>71.39</v>
+      </c>
+      <c r="G28" s="88">
+        <v>-155.83000000000001</v>
+      </c>
+      <c r="H28" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="59" t="s">
         <v>1071</v>
-      </c>
-      <c r="F28" s="89">
-        <v>71.39</v>
-      </c>
-      <c r="G28" s="89">
-        <v>-155.83000000000001</v>
-      </c>
-      <c r="H28" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>1073</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L28" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M28" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N28" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O28" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P28" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R28" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15420,55 +15346,55 @@
         <v>37</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>1074</v>
       </c>
-      <c r="C29" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D29" s="33" t="s">
+      <c r="F29" s="88">
+        <v>71.302999999999997</v>
+      </c>
+      <c r="G29" s="88">
+        <v>-155.69</v>
+      </c>
+      <c r="H29" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="59" t="s">
         <v>1075</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F29" s="89">
-        <v>71.302999999999997</v>
-      </c>
-      <c r="G29" s="89">
-        <v>-155.69</v>
-      </c>
-      <c r="H29" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>1077</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L29" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M29" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N29" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O29" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P29" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R29" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15476,55 +15402,55 @@
         <v>37</v>
       </c>
       <c r="B30" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>1078</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D30" s="33" t="s">
+      <c r="F30" s="88">
+        <v>71.224999999999994</v>
+      </c>
+      <c r="G30" s="88">
+        <v>-155.83600000000001</v>
+      </c>
+      <c r="H30" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="59" t="s">
         <v>1079</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F30" s="89">
-        <v>71.224999999999994</v>
-      </c>
-      <c r="G30" s="89">
-        <v>-155.83600000000001</v>
-      </c>
-      <c r="H30" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>1081</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L30" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M30" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N30" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O30" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P30" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R30" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15532,55 +15458,55 @@
         <v>37</v>
       </c>
       <c r="B31" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>1082</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D31" s="33" t="s">
+      <c r="F31" s="88">
+        <v>71.41</v>
+      </c>
+      <c r="G31" s="88">
+        <v>-156.04</v>
+      </c>
+      <c r="H31" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="59" t="s">
         <v>1083</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F31" s="89">
-        <v>71.41</v>
-      </c>
-      <c r="G31" s="89">
-        <v>-156.04</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>1085</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L31" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N31" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O31" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P31" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q31" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R31" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="17" customFormat="1" ht="409.5">
@@ -15588,55 +15514,55 @@
         <v>37</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F32" s="89">
+        <v>1090</v>
+      </c>
+      <c r="F32" s="88">
         <v>71.42</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="88">
         <v>-155.33000000000001</v>
       </c>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I32" s="59" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L32" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N32" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O32" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P32" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q32" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R32" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="17" customFormat="1" ht="409.5">
@@ -15644,55 +15570,55 @@
         <v>37</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>1088</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F33" s="89">
+      <c r="F33" s="88">
         <v>71.459999999999994</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="88">
         <v>-156.6</v>
       </c>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="89" t="s">
         <v>70</v>
       </c>
       <c r="I33" s="59" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L33" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M33" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N33" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O33" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P33" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R33" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="17" customFormat="1" ht="409.5">
@@ -15700,55 +15626,55 @@
         <v>37</v>
       </c>
       <c r="B34" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>1093</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D34" s="33" t="s">
+      <c r="F34" s="88">
+        <v>68.42</v>
+      </c>
+      <c r="G34" s="88">
+        <v>-166.69</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="59" t="s">
         <v>1094</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F34" s="89">
-        <v>68.42</v>
-      </c>
-      <c r="G34" s="89">
-        <v>-166.69</v>
-      </c>
-      <c r="H34" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>1096</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L34" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M34" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N34" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O34" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P34" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R34" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="17" customFormat="1" ht="409.5">
@@ -15756,55 +15682,55 @@
         <v>37</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>1098</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D35" s="33" t="s">
+      <c r="F35" s="88">
+        <v>70.727000000000004</v>
+      </c>
+      <c r="G35" s="88">
+        <v>-160.34800000000001</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="59" t="s">
         <v>1099</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F35" s="89">
-        <v>70.727000000000004</v>
-      </c>
-      <c r="G35" s="89">
-        <v>-160.34800000000001</v>
-      </c>
-      <c r="H35" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>1101</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L35" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M35" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M35" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N35" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O35" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P35" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R35" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="17" customFormat="1" ht="409.5">
@@ -15812,55 +15738,55 @@
         <v>37</v>
       </c>
       <c r="B36" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>1102</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D36" s="33" t="s">
+      <c r="F36" s="88">
+        <v>70.679000000000002</v>
+      </c>
+      <c r="G36" s="88">
+        <v>-160.21100000000001</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="59" t="s">
         <v>1103</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F36" s="89">
-        <v>70.679000000000002</v>
-      </c>
-      <c r="G36" s="89">
-        <v>-160.21100000000001</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>1105</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K36" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L36" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M36" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N36" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O36" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P36" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q36" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R36" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="17" customFormat="1" ht="409.5">
@@ -15868,55 +15794,55 @@
         <v>37</v>
       </c>
       <c r="B37" s="33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>1106</v>
       </c>
-      <c r="C37" s="33" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D37" s="33" t="s">
+      <c r="F37" s="88">
+        <v>70.653999999999996</v>
+      </c>
+      <c r="G37" s="88">
+        <v>-160.10300000000001</v>
+      </c>
+      <c r="H37" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="59" t="s">
         <v>1107</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F37" s="89">
-        <v>70.653999999999996</v>
-      </c>
-      <c r="G37" s="89">
-        <v>-160.10300000000001</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="59" t="s">
-        <v>1109</v>
       </c>
       <c r="J37" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K37" s="33" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L37" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="M37" s="33" t="s">
         <v>957</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>959</v>
       </c>
       <c r="N37" s="33" t="s">
         <v>554</v>
       </c>
       <c r="O37" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="68" t="s">
         <v>958</v>
       </c>
-      <c r="P37" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="68" t="s">
-        <v>960</v>
-      </c>
       <c r="R37" s="33" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -16094,7 +16020,7 @@
         <v>185</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>35</v>
@@ -16348,7 +16274,7 @@
       </c>
       <c r="Q3" s="66"/>
       <c r="R3" s="68" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -16364,10 +16290,10 @@
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5" s="66"/>
@@ -16396,7 +16322,7 @@
       </c>
       <c r="Q5" s="66"/>
       <c r="R5" s="68" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -16412,7 +16338,7 @@
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
       <c r="D7" s="66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
@@ -16442,7 +16368,7 @@
       </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="68" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="105">
@@ -16452,7 +16378,7 @@
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
       <c r="D8" s="66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
@@ -16482,7 +16408,7 @@
       </c>
       <c r="Q8" s="66"/>
       <c r="R8" s="68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="105">
@@ -16492,7 +16418,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
       <c r="D9" s="66" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
@@ -16522,7 +16448,7 @@
       </c>
       <c r="Q9" s="66"/>
       <c r="R9" s="68" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
